--- a/BalanceSheet/TER_bal.xlsx
+++ b/BalanceSheet/TER_bal.xlsx
@@ -504,19 +504,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-35870000.0</v>
+        <v>262000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-25436000.0</v>
+        <v>222000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>20726000.0</v>
+        <v>191000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-19546000.0</v>
+        <v>206000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>15818000.0</v>
+        <v>183000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>196691000.0</v>
@@ -2029,19 +2029,19 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>-10571000.0</v>
+        <v>177000000.0</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>-8390000.0</v>
+        <v>134000000.0</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>-32021000.0</v>
+        <v>150000000.0</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>148901000.0</v>
+        <v>184000000.0</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>-35323000.0</v>
+        <v>130000000.0</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>126617000.0</v>
@@ -3598,19 +3598,19 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>-1057000.0</v>
+        <v>-83000000.0</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>-11141000.0</v>
+        <v>-77000000.0</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>2616000.0</v>
+        <v>-67000000.0</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>-5338000.0</v>
+        <v>-67000000.0</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>-1825000.0</v>
+        <v>-63000000.0</v>
       </c>
       <c r="G26" s="0" t="n">
         <v>14070000.0</v>
@@ -5145,7 +5145,7 @@
         <v>-339000000.0</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>-451000000.0</v>
+        <v>-497540000.0</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>-527149100.0</v>
@@ -5272,7 +5272,7 @@
         <v>465000000.0</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>460000000.0</v>
+        <v>413687000.0</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>409328000.0</v>
